--- a/src/predicciones/holt_winters/producto_133.xlsx
+++ b/src/predicciones/holt_winters/producto_133.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,1047 +404,684 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44931</v>
       </c>
       <c r="B2">
-        <v>2.002022525367662</v>
+        <v>1.017881410280347</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44947</v>
       </c>
       <c r="B3">
-        <v>0.9854464925317228</v>
+        <v>2.013093103681563</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44967</v>
       </c>
       <c r="B4">
-        <v>0.9834725812648621</v>
+        <v>1.008467927583611</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44968</v>
       </c>
       <c r="B5">
-        <v>0.9914004366916298</v>
+        <v>1.003966648459819</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44975</v>
       </c>
       <c r="B6">
-        <v>1.994844645005323</v>
+        <v>1.999621056313594</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44976</v>
       </c>
       <c r="B7">
-        <v>0.999584108566226</v>
+        <v>0.9954818851626628</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44981</v>
       </c>
       <c r="B8">
-        <v>1.023424461889615</v>
+        <v>1.022694087117334</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44991</v>
       </c>
       <c r="B9">
-        <v>2.008434181196062</v>
+        <v>1.017774413652412</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44993</v>
       </c>
       <c r="B10">
-        <v>0.9918581483601228</v>
+        <v>2.012986107053628</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>45004</v>
       </c>
       <c r="B11">
-        <v>0.9898842370932621</v>
+        <v>1.008360930955676</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>45008</v>
       </c>
       <c r="B12">
-        <v>0.9978120925200298</v>
+        <v>1.003859651831883</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>45016</v>
       </c>
       <c r="B13">
-        <v>2.001256300833723</v>
+        <v>1.999514059685659</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>45029</v>
       </c>
       <c r="B14">
-        <v>1.005995764394626</v>
+        <v>0.9953748885347276</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>45036</v>
       </c>
       <c r="B15">
-        <v>1.029836117718015</v>
+        <v>1.022587090489399</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>45037</v>
       </c>
       <c r="B16">
-        <v>2.014845837024462</v>
+        <v>1.017667417024476</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>45041</v>
       </c>
       <c r="B17">
-        <v>0.9982698041885227</v>
+        <v>2.012879110425692</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>45043</v>
       </c>
       <c r="B18">
-        <v>0.9962958929216621</v>
+        <v>1.008253934327741</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>45048</v>
       </c>
       <c r="B19">
-        <v>1.00422374834843</v>
+        <v>1.003752655203948</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>45058</v>
       </c>
       <c r="B20">
-        <v>2.007667956662122</v>
+        <v>1.999407063057723</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>45060</v>
       </c>
       <c r="B21">
-        <v>1.012407420223026</v>
+        <v>0.9952678919067923</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>45062</v>
       </c>
       <c r="B22">
-        <v>1.036247773546415</v>
+        <v>1.022480093861464</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>45065</v>
       </c>
       <c r="B23">
-        <v>2.021257492852862</v>
+        <v>1.017560420396541</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>45077</v>
       </c>
       <c r="B24">
-        <v>1.004681460016923</v>
+        <v>2.012772113797757</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>45087</v>
       </c>
       <c r="B25">
-        <v>1.002707548750062</v>
+        <v>1.008146937699806</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>45090</v>
       </c>
       <c r="B26">
-        <v>1.01063540417683</v>
+        <v>1.003645658576013</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>45091</v>
       </c>
       <c r="B27">
-        <v>2.014079612490523</v>
+        <v>1.999300066429788</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>45094</v>
       </c>
       <c r="B28">
-        <v>1.018819076051426</v>
+        <v>0.9951608952788571</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>45101</v>
       </c>
       <c r="B29">
-        <v>1.042659429374815</v>
+        <v>1.022373097233529</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45105</v>
       </c>
       <c r="B30">
-        <v>2.027669148681262</v>
+        <v>1.017453423768606</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45108</v>
       </c>
       <c r="B31">
-        <v>1.011093115845323</v>
+        <v>2.012665117169822</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45114</v>
       </c>
       <c r="B32">
-        <v>1.009119204578462</v>
+        <v>1.008039941071871</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45115</v>
       </c>
       <c r="B33">
-        <v>1.017047060005229</v>
+        <v>1.003538661948078</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45122</v>
       </c>
       <c r="B34">
-        <v>2.020491268318922</v>
+        <v>1.999193069801853</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45124</v>
       </c>
       <c r="B35">
-        <v>1.025230731879826</v>
+        <v>0.9950538986509221</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45125</v>
       </c>
       <c r="B36">
-        <v>1.049071085203215</v>
+        <v>1.022266100605594</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45131</v>
       </c>
       <c r="B37">
-        <v>2.034080804509662</v>
+        <v>1.017346427140671</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45141</v>
       </c>
       <c r="B38">
-        <v>1.017504771673723</v>
+        <v>2.012558120541887</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45143</v>
       </c>
       <c r="B39">
-        <v>1.015530860406862</v>
+        <v>1.007932944443936</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45144</v>
       </c>
       <c r="B40">
-        <v>1.023458715833629</v>
+        <v>1.003431665320143</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45150</v>
       </c>
       <c r="B41">
-        <v>2.026902924147323</v>
+        <v>1.999086073173918</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45156</v>
       </c>
       <c r="B42">
-        <v>1.031642387708226</v>
+        <v>0.9949469020229869</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45161</v>
       </c>
       <c r="B43">
-        <v>1.055482741031615</v>
+        <v>1.022159103977659</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45173</v>
       </c>
       <c r="B44">
-        <v>2.040492460338062</v>
+        <v>1.017239430512736</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45191</v>
       </c>
       <c r="B45">
-        <v>1.023916427502122</v>
+        <v>2.012451123913952</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45195</v>
       </c>
       <c r="B46">
-        <v>1.021942516235262</v>
+        <v>1.007825947816</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45196</v>
       </c>
       <c r="B47">
-        <v>1.029870371662029</v>
+        <v>1.003324668692208</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45203</v>
       </c>
       <c r="B48">
-        <v>2.033314579975722</v>
+        <v>1.998979076545983</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45204</v>
       </c>
       <c r="B49">
-        <v>1.038054043536626</v>
+        <v>0.9948399053950516</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45210</v>
       </c>
       <c r="B50">
-        <v>1.061894396860015</v>
+        <v>1.022052107349723</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45222</v>
       </c>
       <c r="B51">
-        <v>2.046904116166462</v>
+        <v>1.017132433884801</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45227</v>
       </c>
       <c r="B52">
-        <v>1.030328083330522</v>
+        <v>2.012344127286017</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45252</v>
       </c>
       <c r="B53">
-        <v>1.028354172063662</v>
+        <v>1.007718951188065</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45253</v>
       </c>
       <c r="B54">
-        <v>1.036282027490429</v>
+        <v>1.003217672064272</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45264</v>
       </c>
       <c r="B55">
-        <v>2.039726235804122</v>
+        <v>1.998872079918048</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45270</v>
       </c>
       <c r="B56">
-        <v>1.044465699365026</v>
+        <v>0.9947329087671166</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45283</v>
       </c>
       <c r="B57">
-        <v>1.068306052688415</v>
+        <v>1.021945110721788</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45288</v>
       </c>
       <c r="B58">
-        <v>2.053315771994862</v>
+        <v>1.017025437256865</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45290</v>
       </c>
       <c r="B59">
-        <v>1.036739739158922</v>
+        <v>2.012237130658082</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45302</v>
       </c>
       <c r="B60">
-        <v>1.034765827892062</v>
+        <v>1.00761195456013</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45311</v>
       </c>
       <c r="B61">
-        <v>1.042693683318829</v>
+        <v>1.003110675436337</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45316</v>
       </c>
       <c r="B62">
-        <v>2.046137891632522</v>
+        <v>1.998765083290112</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45337</v>
       </c>
       <c r="B63">
-        <v>1.050877355193426</v>
+        <v>0.9946259121391814</v>
       </c>
       <c r="C63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>1.074717708516815</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>2.059727427823262</v>
-      </c>
-      <c r="C65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>1.043151394987322</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>1.041177483720461</v>
-      </c>
-      <c r="C67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68">
-        <v>1.049105339147229</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>2.052549547460922</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <v>1.057289011021826</v>
-      </c>
-      <c r="C70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>1.081129364345215</v>
-      </c>
-      <c r="C71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>2.066139083651662</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73">
-        <v>1.049563050815722</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74">
-        <v>1.047589139548861</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75">
-        <v>1.055516994975629</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76">
-        <v>2.058961203289322</v>
-      </c>
-      <c r="C76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77">
-        <v>1.063700666850225</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78">
-        <v>1.087541020173615</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79">
-        <v>2.072550739480062</v>
-      </c>
-      <c r="C79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80">
-        <v>1.055974706644122</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81">
-        <v>1.054000795377261</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82">
-        <v>1.061928650804029</v>
-      </c>
-      <c r="C82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83">
-        <v>2.065372859117722</v>
-      </c>
-      <c r="C83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84">
-        <v>1.070112322678625</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85">
-        <v>1.093952676002015</v>
-      </c>
-      <c r="C85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86">
-        <v>2.078962395308462</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>1.062386362472522</v>
-      </c>
-      <c r="C87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>1.060412451205661</v>
-      </c>
-      <c r="C88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89">
-        <v>1.068340306632429</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90">
-        <v>2.071784514946122</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91">
-        <v>1.076523978507025</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92">
-        <v>1.100364331830415</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93">
-        <v>2.085374051136862</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>1.068798018300922</v>
-      </c>
-      <c r="C94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>1.066824107034061</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>1.074751962460829</v>
-      </c>
-      <c r="C96">
         <v>1</v>
       </c>
     </row>
